--- a/Group_Project_01_(Updated).xlsx
+++ b/Group_Project_01_(Updated).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asher Lev\Desktop\Grad_School\2019_3rd_Fall\Data_Visualization\Group_Project_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4808977D-13EE-41AA-941F-A76B7F2C43D0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DDE673-2D03-44B3-BDFC-790635244F35}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5FF5996A-A805-4CA3-A4A9-79897AF46490}"/>
   </bookViews>
@@ -102,30 +102,6 @@
     <t>Alex</t>
   </si>
   <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Week</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Duration (min)</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>App_Type</t>
-  </si>
-  <si>
-    <t>App_Name</t>
-  </si>
-  <si>
-    <t>Starting_Hour</t>
-  </si>
-  <si>
     <t>reading_&amp;_reference</t>
   </si>
   <si>
@@ -136,6 +112,30 @@
   </si>
   <si>
     <t>washington_post</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>durationMin</t>
+  </si>
+  <si>
+    <t>hourStarting</t>
+  </si>
+  <si>
+    <t>appName</t>
+  </si>
+  <si>
+    <t>appType</t>
   </si>
 </sst>
 </file>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82B6280-FC88-4684-9FFA-DC7388C20470}">
   <dimension ref="A1:H290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,28 +530,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -2177,10 +2177,10 @@
         <v>103019</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F64" s="2">
         <v>17</v>
@@ -2203,10 +2203,10 @@
         <v>103019</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F65" s="2">
         <v>18</v>
@@ -2411,10 +2411,10 @@
         <v>110219</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F73" s="2">
         <v>12</v>
@@ -2645,10 +2645,10 @@
         <v>110319</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F82" s="2">
         <v>14</v>
@@ -2723,10 +2723,10 @@
         <v>110319</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F85" s="2">
         <v>21</v>
@@ -2801,10 +2801,10 @@
         <v>110419</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F88" s="2">
         <v>18</v>
@@ -2816,7 +2816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>20</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>20</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>20</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>20</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>20</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>20</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>20</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>20</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>20</v>
       </c>
@@ -3087,10 +3087,10 @@
         <v>110619</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F99" s="2">
         <v>12</v>
@@ -3113,10 +3113,10 @@
         <v>110619</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F100" s="2">
         <v>11</v>
@@ -3128,7 +3128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>20</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>20</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>20</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>20</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>20</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>20</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>20</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>21</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>21</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>21</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>21</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>21</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>21</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>21</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>21</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>21</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>21</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>21</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>21</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>21</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>21</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>21</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>21</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>21</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>21</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>21</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>21</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>21</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>21</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>21</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>21</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>21</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>21</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>21</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>21</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>21</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>21</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>21</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>21</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>21</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>21</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>21</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>21</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>21</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>21</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>21</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>21</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>21</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>21</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>21</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>21</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>21</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>21</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>21</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>21</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>21</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>21</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>21</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>21</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>21</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>21</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>21</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>21</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>21</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>21</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>21</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>21</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>21</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>21</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>21</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>21</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>21</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>21</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>21</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>21</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>21</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>21</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>22</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>22</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>22</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>22</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>22</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>22</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>22</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>22</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>22</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>22</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>22</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>22</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
         <v>22</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>22</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>22</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>22</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>22</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>22</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>22</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>22</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>22</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>22</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
         <v>22</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>22</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>22</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>22</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>22</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>22</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
         <v>22</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>22</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>22</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>22</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>22</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>22</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>22</v>
       </c>
@@ -6066,7 +6066,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>22</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>22</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>22</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>22</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>22</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>22</v>
       </c>
@@ -6222,7 +6222,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>22</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>22</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>22</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>22</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
         <v>22</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
         <v>22</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>22</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>22</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>22</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>22</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
         <v>22</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
         <v>22</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>22</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>22</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
         <v>22</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
         <v>22</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
         <v>22</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
         <v>22</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
         <v>22</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
         <v>22</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
         <v>22</v>
       </c>
@@ -6768,7 +6768,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
         <v>22</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
         <v>22</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
         <v>22</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
         <v>22</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
         <v>22</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
         <v>22</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
         <v>22</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
         <v>22</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
         <v>22</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
         <v>22</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
         <v>22</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
         <v>22</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
         <v>22</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
         <v>22</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
         <v>22</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
         <v>22</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
         <v>22</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
         <v>22</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
         <v>22</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
         <v>22</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
         <v>22</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
         <v>22</v>
       </c>
@@ -7340,7 +7340,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
         <v>22</v>
       </c>
@@ -7366,7 +7366,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
         <v>22</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
         <v>22</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
         <v>22</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
         <v>22</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
         <v>22</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" s="1" t="s">
         <v>22</v>
       </c>
@@ -7522,7 +7522,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A270" s="1" t="s">
         <v>22</v>
       </c>
@@ -7548,7 +7548,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
         <v>22</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="272" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
         <v>22</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
         <v>22</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
         <v>22</v>
       </c>
@@ -7652,7 +7652,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
         <v>22</v>
       </c>
@@ -7678,7 +7678,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
         <v>22</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
         <v>22</v>
       </c>
@@ -7730,7 +7730,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
         <v>22</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
         <v>22</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A280" s="1" t="s">
         <v>22</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
         <v>22</v>
       </c>
@@ -7834,7 +7834,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
         <v>22</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
         <v>22</v>
       </c>
@@ -7886,7 +7886,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A284" s="1" t="s">
         <v>22</v>
       </c>
@@ -7912,7 +7912,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A285" s="1" t="s">
         <v>22</v>
       </c>
@@ -7938,7 +7938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
         <v>22</v>
       </c>
@@ -7964,7 +7964,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
         <v>22</v>
       </c>
@@ -7990,7 +7990,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
         <v>22</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A289" s="1" t="s">
         <v>22</v>
       </c>
@@ -8042,7 +8042,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A290" s="1" t="s">
         <v>22</v>
       </c>
